--- a/biology/Zoologie/Furcifer_polleni/Furcifer_polleni.xlsx
+++ b/biology/Zoologie/Furcifer_polleni/Furcifer_polleni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Furcifer polleni, le Caméléon de Mayotte, est une espèce de sauriens de la famille des Chamaeleonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Furcifer polleni, le Caméléon de Mayotte, est une espèce de sauriens de la famille des Chamaeleonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Mayotte[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Mayotte.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de François Pollen[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de François Pollen.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Peters, 1874 "1873" : Über eine von Hrn. F. Pollen und van Dam auf Madagascar und anderen ostafrikanischen Inseln gemachte Sammlung von Amphibien. Monatsberichte der Königlich preussischen Akademie der Wissenschaften zu Berlin, vol. 1873, p. 792-795 (texte intégral).</t>
         </is>
